--- a/CUSTOMER MOBILE DETAILS/MOBILE DETAILS.xlsx
+++ b/CUSTOMER MOBILE DETAILS/MOBILE DETAILS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>PAYAL BAG MUNGELI</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>MANOJ POPTANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2065 </t>
+  </si>
+  <si>
+    <t>OM SAI  SARSIWA</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -402,6 +408,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/CUSTOMER MOBILE DETAILS/MOBILE DETAILS.xlsx
+++ b/CUSTOMER MOBILE DETAILS/MOBILE DETAILS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>PAYAL BAG MUNGELI</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>OM SAI  SARSIWA</t>
+  </si>
+  <si>
+    <t>DEWANGAN GENERAL  BHILAIGARH</t>
+  </si>
+  <si>
+    <t>SM-M205F</t>
   </si>
 </sst>
 </file>
@@ -380,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -414,6 +420,14 @@
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
